--- a/src/test/java/es/uniovi/asw/jdbc/votersXSSFReaderTest.xlsx
+++ b/src/test/java/es/uniovi/asw/jdbc/votersXSSFReaderTest.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chama\Documents\GitHub\censuses_i1b\src\test\java\es\uniovi\asw\parser\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uo237633\IdeaProjects\censuses_i1b\src\test\java\es\uniovi\asw\jdbc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>nombre</t>
   </si>
@@ -60,6 +60,18 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>Pepe</t>
+  </si>
+  <si>
+    <t>3333K</t>
+  </si>
+  <si>
+    <t>pepe@gmail.com</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -388,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,10 +456,25 @@
         <v>11</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
